--- a/สมุดงาน1.xlsx
+++ b/สมุดงาน1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16927"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Personnel</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>NumMedUse</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Roomuse</t>
+  </si>
+  <si>
+    <t>RoomNum</t>
+  </si>
+  <si>
+    <t>RoomType</t>
+  </si>
+  <si>
+    <t>UseTime</t>
+  </si>
+  <si>
+    <t>LeaveTime</t>
   </si>
 </sst>
 </file>
@@ -218,6 +236,30 @@
     <tableColumn id="1" name="คอลัมน์1"/>
     <tableColumn id="2" name="คอลัมน์2"/>
     <tableColumn id="3" name="คอลัมน์3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B15:C16" totalsRowShown="0">
+  <autoFilter ref="B15:C16"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="คอลัมน์1"/>
+    <tableColumn id="2" name="คอลัมน์2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="H15:K16" totalsRowShown="0">
+  <autoFilter ref="H15:K16"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="คอลัมน์1"/>
+    <tableColumn id="2" name="คอลัมน์2"/>
+    <tableColumn id="3" name="คอลัมน์3"/>
+    <tableColumn id="4" name="คอลัมน์4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -520,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H15" sqref="H15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -708,15 +750,65 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="6">
+  <tableParts count="8">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>